--- a/data/realtime Tracking.xlsx
+++ b/data/realtime Tracking.xlsx
@@ -582,7 +582,7 @@
       <c r="B7" s="2" t="n"/>
       <c r="C7" s="2" t="n"/>
       <c r="D7" s="2" t="n">
-        <v>31</v>
+        <v>1030</v>
       </c>
       <c r="E7" s="2" t="n"/>
       <c r="F7" s="2" t="n"/>
